--- a/DS Log (version 1).xlsb.xlsx
+++ b/DS Log (version 1).xlsb.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgurram\Desktop\Microsoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF605B22-2FCE-4004-9D91-E4ABC37CE3DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192493AB-451F-49E8-A192-2F5E0FF4F63A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CA0C73C-96B2-4761-9B25-C2E5F7BE0F62}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="2" xr2:uid="{4CA0C73C-96B2-4761-9B25-C2E5F7BE0F62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="MS Most" sheetId="2" r:id="rId1"/>
+    <sheet name="Amazon MS Card" sheetId="4" r:id="rId2"/>
+    <sheet name="hideone" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MS Most'!$A$1:$C$347</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="440">
   <si>
     <t>Longest Happy String</t>
   </si>
@@ -1322,13 +1323,49 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0vd4zzZ2Wvc</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Most Common Word</t>
+  </si>
+  <si>
+    <t>Reorder Log Files</t>
+  </si>
+  <si>
+    <t>Cut Off Trees for Golf Event</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>Second Highest Salary</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
+  </si>
+  <si>
+    <t>Prison Cells After N Days</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize BST</t>
+  </si>
+  <si>
+    <t>Problems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,12 +1396,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1380,23 +1411,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1410,9 +1430,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1730,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB051ED2-709F-4C45-AAD7-9C7536FCE462}">
   <dimension ref="A1:C347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,7 +2640,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
@@ -2633,7 +2651,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
@@ -2748,7 +2766,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
@@ -2756,7 +2774,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
@@ -4849,663 +4867,1174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F14153-B375-4DCE-9A6D-CAB45044C3F7}">
-  <dimension ref="A1:A130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFE4273-866B-4934-B194-F209A87A5A64}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A130"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>6165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>181113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>15453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>9520</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92308DF-67B9-43E8-B3FA-AD970AE6C559}">
+  <dimension ref="A1:A127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>8660</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>28019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>6865</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
-        <v>14193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
-        <v>11426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
-        <v>27384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
-        <v>5304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5">
-        <v>6183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
-        <v>5543</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
-        <v>6477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>36245</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>30648</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
-        <v>7556</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="5">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="5">
-        <v>22953</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
-        <v>7207</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="5">
-        <v>11157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="5">
-        <v>21995</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
-        <v>3474</v>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
